--- a/biology/Biochimie/Biosynthèse/Biosynthèse.xlsx
+++ b/biology/Biochimie/Biosynthèse/Biosynthèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biosynth%C3%A8se</t>
+          <t>Biosynthèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biosynthèse est la formation de substances par un être vivant ou son symbiote, dans son milieu interne ou dans les excrêtats que sont le mucus, les coquilles des œufs ou des mollusques, l’écorce, etc.
 Elle intéresse les chimistes et les biotechnologistes qui découvrent dans les cellules ou les organismes de nouveaux moyens, moins polluants ou moins énergivores, de produire des molécules complexes.
